--- a/biology/Zoologie/Anthocharis_lanceolata/Anthocharis_lanceolata.xlsx
+++ b/biology/Zoologie/Anthocharis_lanceolata/Anthocharis_lanceolata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anthocharis lanceolata est une espèce de papillons de la famille des Pieridae, de la sous-famille des Pierinae et du genre Anthocharis.
 </t>
@@ -511,11 +523,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anthocharis lanceolata a été nommé par Hippolyte Lucas en 1862[2].
-Noms vernaculaires
-Anthocharis lanceolata se nomme Gray Marble en anglais[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anthocharis lanceolata a été nommé par Hippolyte Lucas en 1862.
 </t>
         </is>
       </c>
@@ -541,52 +553,57 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anthocharis lanceolata se nomme Gray Marble en anglais.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Anthocharis_lanceolata</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anthocharis_lanceolata</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (14 mars 2021)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (14 mars 2021) :
 sous-espèce Anthocharis lanceolata australis Grinnell, 1908
 sous-espèce Anthocharis lanceolata desertolimbus Emmel, Emmel &amp; Mattoon, 1998
 sous-espèce Anthocharis lanceolata lanceolata Lucas, 1852</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Anthocharis_lanceolata</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Anthocharis_lanceolata</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anthocharis lanceolata est un papillon blanc de taille moyenne (d'une envergure de 38 à 50 mm). L'apex des ailes antérieures est marqué de marron.
-Le revers des ailes postérieures est marqué de veines et marbrures marron clair[4].
-Chenille
-La chenille est de couleur bleu pointillée de noir avec une ligne jaune sur chaque flanc[5].
-</t>
-        </is>
-      </c>
-    </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
@@ -608,15 +625,15 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Période de vol et hivernation
-Il hiverne dans sa chrysalide, au stade nymphal[4].
-Plantes hôtes
-Les plantes-hôtes de sa chenille sont des Arabis[2].
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anthocharis lanceolata est un papillon blanc de taille moyenne (d'une envergure de 38 à 50 mm). L'apex des ailes antérieures est marqué de marron.
+Le revers des ailes postérieures est marqué de veines et marbrures marron clair.
 </t>
         </is>
       </c>
@@ -642,16 +659,199 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Chenille</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chenille est de couleur bleu pointillée de noir avec une ligne jaune sur chaque flanc.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Anthocharis_lanceolata</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anthocharis_lanceolata</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il hiverne dans sa chrysalide, au stade nymphal.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Anthocharis_lanceolata</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anthocharis_lanceolata</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes-hôtes de sa chenille sont des Arabis.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Anthocharis_lanceolata</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anthocharis_lanceolata</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anthocharis lanceolata est présent en Amérique du Nord, sur la côte ouest, dans le sud de l'Oregon et en Californie jusqu'au Mexique[2],[4]. Sa présence plus au nord à la frontière canadienne est à confirmer[6].
-Biotope
-Il ne réside que dans les canyons des Montagnes Rocheuses.
-Protection
-Pas de statut de protection particulier[4].
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anthocharis lanceolata est présent en Amérique du Nord, sur la côte ouest, dans le sud de l'Oregon et en Californie jusqu'au Mexique,. Sa présence plus au nord à la frontière canadienne est à confirmer.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Anthocharis_lanceolata</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anthocharis_lanceolata</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il ne réside que dans les canyons des Montagnes Rocheuses.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Anthocharis_lanceolata</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anthocharis_lanceolata</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
